--- a/2023-Tokio-CursoPython/Modulo 5/2.- Excel y CSV/Prácticas/02_Excel_data.xlsx
+++ b/2023-Tokio-CursoPython/Modulo 5/2.- Excel y CSV/Prácticas/02_Excel_data.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="direcciones" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ventas" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Mi hoja" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="olimpiadas" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="otros" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
@@ -21,7 +21,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <name val="Arial"/>
       <family val="2"/>
@@ -32,6 +32,22 @@
       <family val="2"/>
       <b val="1"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <i val="1"/>
+      <color rgb="00FF0000"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="14"/>
     </font>
   </fonts>
   <fills count="3">
@@ -60,10 +76,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -138,6 +157,816 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Medallas por países</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'olimpiadas'!E3</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'olimpiadas'!$A$3:$A$9</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'olimpiadas'!$E$4:$E$9</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Paises</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Número total de medallas</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Medallas por países</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'olimpiadas'!E2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'olimpiadas'!$A$3:$A$9</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'olimpiadas'!$E$3:$E$9</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Paises</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Número total de medallas</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Medallas por países</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'olimpiadas'!E2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'olimpiadas'!$A$3:$A$8</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'olimpiadas'!$E$3:$E$8</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Paises</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Número total de medallas</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Medallas por países</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'olimpiadas'!E2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'olimpiadas'!$A$3:$A$8</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'olimpiadas'!$E$3:$E$8</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Paises</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Número total de medallas</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Medallas por países</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'olimpiadas'!E2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'olimpiadas'!$A$3:$A$8</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'olimpiadas'!$E$3:$E$8</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Paises</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Número total de medallas</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Medallas por países</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'olimpiadas'!E3</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'olimpiadas'!$A$3:$A$8</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'olimpiadas'!$E$4:$E$8</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Paises</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Número total de medallas</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="5" name="Chart 5"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="6" name="Chart 6"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -921,20 +1750,177 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Medallero de no se qué olimpiada:</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>Pais</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>Oros</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>Platas</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>Bronces</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>46</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <f>B3+C3+D3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>38</v>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <f>B4+C4+D4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>29</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <f>B5+C5+D5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>22</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <f>B6+C6+D6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>13</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f>B7+C7+D7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <f>B8+C8+D8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10">
+        <f>SUM(B3:B4)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -947,7 +1933,7 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>

--- a/2023-Tokio-CursoPython/Modulo 5/2.- Excel y CSV/Prácticas/02_Excel_data.xlsx
+++ b/2023-Tokio-CursoPython/Modulo 5/2.- Excel y CSV/Prácticas/02_Excel_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="direcciones" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="otros" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -161,6 +161,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -171,7 +172,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Medallas por países</a:t>
+              <a:t>Medallas por país</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -190,571 +191,68 @@
             </strRef>
           </tx>
           <spPr>
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
             <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <cat>
-            <numRef>
-              <f>'olimpiadas'!$A$3:$A$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'olimpiadas'!$E$4:$E$9</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Paises</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Número total de medallas</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Medallas por países</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'olimpiadas'!E2</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'olimpiadas'!$A$3:$A$9</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'olimpiadas'!$E$3:$E$9</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Paises</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Número total de medallas</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Medallas por países</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'olimpiadas'!E2</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'olimpiadas'!$A$3:$A$8</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'olimpiadas'!$E$3:$E$8</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Paises</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Número total de medallas</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Medallas por países</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'olimpiadas'!E2</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'olimpiadas'!$A$3:$A$8</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'olimpiadas'!$E$3:$E$8</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Paises</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Número total de medallas</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Medallas por países</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'olimpiadas'!E2</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'olimpiadas'!$A$3:$A$8</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'olimpiadas'!$E$3:$E$8</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Paises</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Número total de medallas</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Medallas por países</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'olimpiadas'!E3</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
+          <dPt>
+            <idx val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="000FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="1"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="008080"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="2"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="3"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="800000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="4"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
           <cat>
             <numRef>
               <f>'olimpiadas'!$A$3:$A$8</f>
@@ -851,116 +349,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>3</col>
-      <colOff>0</colOff>
-      <row>11</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="2" name="Chart 2"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>3</col>
-      <colOff>0</colOff>
-      <row>11</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="3" name="Chart 3"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>3</col>
-      <colOff>0</colOff>
-      <row>11</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="4" name="Chart 4"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>3</col>
-      <colOff>0</colOff>
-      <row>11</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="5" name="Chart 5"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>3</col>
-      <colOff>0</colOff>
-      <row>11</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="6" name="Chart 6"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1791,6 +1179,11 @@
           <t>Bronces</t>
         </is>
       </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>Medallas por país</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="inlineStr">
@@ -1933,7 +1326,7 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
